--- a/tests/TI_Fonte.xlsx
+++ b/tests/TI_Fonte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10f1a3d1b53d65b3/Ambiente de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDADE_STUFF\UNI\3a\1s\TI\TI_GROUP_WORK\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5F7B7E-DBBF-4337-8537-3167C18FC984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451009DD-B602-4273-B4E4-A132479EEF16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t>vazio</t>
   </si>
@@ -138,13 +138,55 @@
   </si>
   <si>
     <t>p(n|u)</t>
+  </si>
+  <si>
+    <t>p(n|k)</t>
+  </si>
+  <si>
+    <t>p(e|k)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>p(r|b)</t>
+  </si>
+  <si>
+    <t>p(n|w)</t>
+  </si>
+  <si>
+    <t>p(o|r)</t>
+  </si>
+  <si>
+    <t>p(n|e)</t>
+  </si>
+  <si>
+    <t>Vazio | \n</t>
+  </si>
+  <si>
+    <t>p(vazio|-)</t>
+  </si>
+  <si>
+    <t>p(-|-)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +194,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +239,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -200,10 +254,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,11 +292,161 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -252,6 +457,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E79ACEBE-EBC7-452D-BC75-2CA113662F1A}" name="Table3" displayName="Table3" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{915AEF1A-48B6-4C31-A520-D566E86BC300}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0C69DBB7-23E0-4745-9BD1-CD27E231727A}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{CD2B6028-3A5E-4A66-9CA5-0BD7121BB145}" name="1"/>
+    <tableColumn id="3" xr3:uid="{5AB34924-68F6-4142-A533-43E799E3EB87}" name="2"/>
+    <tableColumn id="4" xr3:uid="{48507FA5-373B-4D37-9F93-47EDCD9BCBE5}" name="3"/>
+    <tableColumn id="5" xr3:uid="{60F8808C-93E2-46B7-88E2-63312D56F59D}" name="4"/>
+    <tableColumn id="6" xr3:uid="{07A4CC9D-22CA-4527-88A5-B1EEAA1A09BE}" name="Total">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45B7ECBC-F3BB-4FC2-8C87-2B486545B693}" name="Table2" displayName="Table2" ref="A1:F6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
+  <autoFilter ref="A1:F6" xr:uid="{5497B681-3AD8-44F9-8D9D-6D02DE7839E0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AF9129D3-2D60-47F8-B33D-0CD5D3446CB1}" name="Column1" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{90716298-F419-4D0B-9CF0-1B878C1656F8}" name="1" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{1FDB1C13-BECB-47AD-8F9C-8081E9D0A1CE}" name="2" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{ADC627C2-3263-4B57-A6CE-D82B94C826E3}" name="3" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{9F2C0C13-D64B-4FF2-8F48-62FFAECF1CA7}" name="4" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{5236973C-975C-46A4-AB14-5E815C2E5A96}" name="Total" dataDxfId="34">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FCF6600-77A1-477C-9578-38E5455F0D9C}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="41">
+  <autoFilter ref="A1:F4" xr:uid="{E09147CD-8B2D-4AD9-A5C8-68F0841B7A9B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B3E47F96-6B4F-4D9E-B833-645C8721F0CC}" name="Column1" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{A85180D1-72E5-4F0E-8B1A-963DB3EBFBC8}" name="1" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{02643A54-F158-4DE4-AD33-EA62B28D3836}" name="2" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{EF79131F-7236-476C-AB77-521818DA2D59}" name="3" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{5ACC58FA-39F5-4E4B-A356-A27439658C48}" name="4" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{B681919E-F5AE-47C6-ADD9-A141148FBC55}" name="Total" dataDxfId="42">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C8012F97-F7CA-473C-95F4-76E7A4009A16}" name="Table15" displayName="Table15" ref="A1:F4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F4" xr:uid="{A4F65BED-C35C-4A41-834E-F3399C2F6A59}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6F6EF65D-0E3E-4A14-894F-F9C5F64F22EA}" name="Column1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{16891879-B1D5-414C-915E-ED78BAE6A71B}" name="1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{E27869C6-9FFB-4EE7-8771-9C0F4E8155FD}" name="2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{B75AAC92-3AE1-4051-A75F-559EA6D9590A}" name="3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4BA6651C-3E30-443F-B214-18C2BC358703}" name="4" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{0F7EF792-2939-4553-8863-C58FDF6D230A}" name="Total" dataDxfId="24">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{517AB90A-C004-4CA9-8567-A3FD317BD398}" name="Table156" displayName="Table156" ref="A1:F4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F4" xr:uid="{F57A4945-24FC-4B36-B417-9B29AA4AF8ED}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0DD04FE6-2BCA-4607-B639-6BB6E2095B7A}" name="Column1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{AE7C8731-5BD8-4D4F-935D-572E0E5C1CF4}" name="1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3FE0A631-6B08-47C1-B4C4-05C19D7B4B5D}" name="2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{468387BD-B6B1-4BD6-A88D-9F6811BC8987}" name="3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{3094380A-E9D1-4BA6-A258-11CB8C072431}" name="4" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{94BA57A4-5FCA-4E38-B973-72D62FAB2362}" name="Total" dataDxfId="16">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1406D0C-6E30-41C2-8287-399C7F0DE65B}" name="Table1567" displayName="Table1567" ref="A1:F4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F4" xr:uid="{FBF17D4F-45E8-4A7D-B050-C113F7506148}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CE0B178D-06EA-4B7B-AB66-0E8DC83023E8}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{04FF8ACA-0C7C-45E6-8D71-3BC15F7ACCFE}" name="1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A7961451-7A22-4949-BBC6-801DBCB72DC0}" name="2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5831C39B-BE25-40B8-BB48-1DC932F4F99C}" name="3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C169332A-A9B6-4911-A751-0F6030F14791}" name="4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F1FFDCBC-8E84-4F0E-955E-F75639416FE3}" name="Total" dataDxfId="8">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FF53455D-9CA8-4C4D-8678-89745B11A5DD}" name="Table15678" displayName="Table15678" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F6" xr:uid="{B5B63E34-5D0C-46D9-A1BC-2438CE6F57AA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{61E1BA16-4459-4A1E-B1D2-EF05D5D5A2DC}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{373765C0-913F-4059-AFDC-EDE751E3166B}" name="1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A08F9E2A-F4EB-4178-B1FA-F27001F36DD5}" name="2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3FC0191E-62BF-4A22-8AFF-0B89292EABD5}" name="3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{54BAFD1F-FCF2-473E-A93F-C272D13D4C43}" name="4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3E4926DE-7251-479A-B844-4263B9F03711}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,12 +878,12 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -596,7 +920,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -631,12 +955,10 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
+      <c r="L2" s="12"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +988,10 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="12">
+        <f>'r'!F4</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
@@ -675,7 +1000,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -716,7 +1041,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,21 +1062,30 @@
         <f>u!F4</f>
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="12">
+        <f>k!F5</f>
+        <v>0.32056804057722749</v>
+      </c>
+      <c r="H5" s="12">
+        <f>w!F4</f>
+        <v>1</v>
+      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="12">
+        <f>e!F4</f>
+        <v>1</v>
+      </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,7 +1125,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -832,7 +1166,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -872,7 +1206,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,7 +1246,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -937,7 +1271,10 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="12">
+        <f>b!F4</f>
+        <v>1</v>
+      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -949,7 +1286,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,7 +1305,10 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="12">
+        <f>k!F6</f>
+        <v>0.67943195942277257</v>
+      </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
@@ -986,7 +1326,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1022,55 +1362,55 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM(B2:B12)</f>
+        <f t="shared" ref="B13:L13" si="0">SUM(B2:B12)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <f>SUM(C2:C12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM(D2:D12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(E2:E12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM(F2:F12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM(G2:G12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM(H2:H12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(I2:I12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM(J2:J12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM(K2:K12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -1082,37 +1422,358 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2245859-14A2-4B79-AFDE-35878850CC16}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2164</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2063</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(B2:B2)</f>
+        <v>2164</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(C2:C2)</f>
+        <v>2248</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(D2:D2)</f>
+        <v>2100</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM(E2:E2)</f>
+        <v>2063</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B2/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2/D3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F20FD1-BF12-4904-9AC5-6CC54554056B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2164</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2063</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(B2:B2)</f>
+        <v>2164</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(C2:C2)</f>
+        <v>2248</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(D2:D2)</f>
+        <v>2100</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM(E2:E2)</f>
+        <v>2063</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B2/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2/D3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3DFA79-9423-4F2E-9A23-DB8C6AA60AC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <f>SUM(B3:E3)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(B3:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(C3:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(D3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>SUM(E3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F5" si="0">SUM(B4:E4)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="e">
+        <f>B3/B4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="1" t="e">
+        <f>C3/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="1" t="e">
+        <f>D3/D4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="1" t="e">
+        <f>E3/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f>B4/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="1" t="e">
+        <f>C4/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="1" t="e">
+        <f>D4/D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="1" t="e">
+        <f>E4/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="13" t="e">
+        <f t="shared" ref="F6" si="1">SUM(B6:E6)/4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1121,12 +1782,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -1144,7 +1805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1826,7 @@
         <v>5426</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1847,7 @@
         <v>1419.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1872,7 @@
         <v>6845.25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1893,7 @@
         <v>2143.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1914,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1939,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1298,12 +1959,12 @@
         <f>E4/E7</f>
         <v>0.69540000000000002</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="13">
         <f>SUM(B8:E8)/4</f>
         <v>0.68452500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1323,12 +1984,12 @@
         <f>E5/E7</f>
         <v>0.20630000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <f>SUM(B9:E9)/4</f>
         <v>0.21437500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +2009,7 @@
         <f>E6/E7</f>
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="13">
         <f>SUM(B10:E10)/4</f>
         <v>0.1011</v>
       </c>
@@ -1362,13 +2023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA30243-74B1-46F8-AE5B-6E8588B163F2}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1385,7 +2046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1402,11 +2063,11 @@
         <v>1451</v>
       </c>
       <c r="F2" s="7">
-        <f>SUM(B2:E2)/4</f>
+        <f t="shared" ref="F2:F10" si="0">SUM(B2:E2)/4</f>
         <v>1419.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1423,11 +2084,11 @@
         <v>5503</v>
       </c>
       <c r="F3" s="7">
-        <f>SUM(B3:E3)/4</f>
+        <f t="shared" si="0"/>
         <v>5426</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1444,11 +2105,11 @@
         <v>2063</v>
       </c>
       <c r="F4" s="7">
-        <f>SUM(B4:E4)/4</f>
+        <f t="shared" si="0"/>
         <v>2143.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1465,11 +2126,11 @@
         <v>983</v>
       </c>
       <c r="F5" s="7">
-        <f>SUM(B5:E5)/4</f>
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1490,11 +2151,11 @@
         <v>10000</v>
       </c>
       <c r="F6" s="7">
-        <f>SUM(B6:E6)/4</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1514,12 +2175,12 @@
         <f>E2/E6</f>
         <v>0.14510000000000001</v>
       </c>
-      <c r="F7" s="7">
-        <f>SUM(B7:E7)/4</f>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
         <v>0.141925</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1539,12 +2200,12 @@
         <f>E3/E6</f>
         <v>0.55030000000000001</v>
       </c>
-      <c r="F8" s="7">
-        <f>SUM(B8:E8)/4</f>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
         <v>0.54259999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1564,12 +2225,12 @@
         <f>E4/E6</f>
         <v>0.20630000000000001</v>
       </c>
-      <c r="F9" s="7">
-        <f>SUM(B9:E9)/4</f>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
         <v>0.21437500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1589,8 +2250,8 @@
         <f>E5/E6</f>
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="F10" s="7">
-        <f>SUM(B10:E10)/4</f>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
         <v>0.1011</v>
       </c>
     </row>
@@ -1604,12 +2265,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -1627,7 +2288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +2309,7 @@
         <v>1419.25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1669,7 +2330,7 @@
         <v>1419.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1694,7 +2355,7 @@
         <v>2838.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1714,12 +2375,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <f>SUM(B5:E5)/4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1739,12 +2400,12 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <f>SUM(B6:E6)/4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1752,7 +2413,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1760,7 +2421,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1768,7 +2429,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1786,12 +2447,12 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -1810,7 +2471,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1827,12 +2488,12 @@
         <v>983</v>
       </c>
       <c r="F2" s="7">
-        <f>SUM(B2:E2)/4</f>
+        <f t="shared" ref="F2:F10" si="0">SUM(B2:E2)/4</f>
         <v>1011</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1849,12 +2510,12 @@
         <v>983</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM(B3:E3)/4</f>
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1871,12 +2532,12 @@
         <v>983</v>
       </c>
       <c r="F4" s="7">
-        <f>SUM(B4:E4)/4</f>
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,12 +2554,12 @@
         <v>7566</v>
       </c>
       <c r="F5" s="1">
-        <f>SUM(B5:E5)/4</f>
+        <f t="shared" si="0"/>
         <v>7569.75</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1919,12 +2580,12 @@
         <v>10515</v>
       </c>
       <c r="F6" s="7">
-        <f>SUM(B6:E6)/4</f>
+        <f t="shared" si="0"/>
         <v>10602.75</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1944,13 +2605,13 @@
         <f>E2/E6</f>
         <v>9.348549690917736E-2</v>
       </c>
-      <c r="F7" s="1">
-        <f>SUM(B7:E7)/4</f>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
         <v>9.5347424203843331E-2</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1970,13 +2631,13 @@
         <f>E3/E6</f>
         <v>9.348549690917736E-2</v>
       </c>
-      <c r="F8" s="7">
-        <f>SUM(B8:E8)/4</f>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
         <v>9.5347424203843331E-2</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2657,13 @@
         <f>E4/E6</f>
         <v>9.348549690917736E-2</v>
       </c>
-      <c r="F9" s="1">
-        <f>SUM(B9:E9)/4</f>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
         <v>9.5347424203843331E-2</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -2022,18 +2683,18 @@
         <f>E5/E6</f>
         <v>0.71954350927246791</v>
       </c>
-      <c r="F10" s="7">
-        <f>SUM(B10:E10)/4</f>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
         <v>0.71395772738846996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2042,7 +2703,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2051,7 +2712,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2060,7 +2721,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2069,7 +2730,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2078,7 +2739,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2087,7 +2748,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2096,7 +2757,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2105,7 +2766,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2114,7 +2775,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2123,7 +2784,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2132,7 +2793,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2141,7 +2802,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2150,7 +2811,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2159,7 +2820,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2168,7 +2829,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2177,7 +2838,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2186,7 +2847,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2195,7 +2856,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2204,7 +2865,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2213,7 +2874,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2222,7 +2883,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2231,7 +2892,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2240,7 +2901,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2249,7 +2910,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2258,7 +2919,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2267,7 +2928,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2276,7 +2937,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2285,7 +2946,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2294,7 +2955,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2303,7 +2964,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2312,7 +2973,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2321,7 +2982,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2330,7 +2991,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2339,7 +3000,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2348,7 +3009,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2357,7 +3018,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2366,7 +3027,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2375,7 +3036,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2384,7 +3045,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2393,7 +3054,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2402,7 +3063,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2411,7 +3072,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2420,7 +3081,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2429,7 +3090,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2438,7 +3099,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2447,7 +3108,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2456,7 +3117,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2465,7 +3126,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2474,7 +3135,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2483,7 +3144,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2492,7 +3153,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2501,7 +3162,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2510,7 +3171,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2519,7 +3180,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2528,7 +3189,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2537,7 +3198,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2546,7 +3207,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2555,7 +3216,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2564,7 +3225,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2573,7 +3234,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2582,7 +3243,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2591,7 +3252,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2600,7 +3261,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2609,7 +3270,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2618,7 +3279,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2627,7 +3288,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2636,7 +3297,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2645,7 +3306,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2654,7 +3315,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2673,29 +3334,32 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2716,7 +3380,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2737,7 +3401,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2753,48 +3417,420 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="14">
         <f>SUM(B4:E4)/4</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116A0022-4120-415F-BE5A-62387F0E13B3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1022</v>
+      </c>
+      <c r="E2" s="1">
+        <v>983</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2164</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2063</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(B2:B3)</f>
+        <v>3171</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:F4" si="1">SUM(C2:C3)</f>
+        <v>3280</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3122</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>3046</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>3154.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B2/B4</f>
+        <v>0.31756543677073479</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:E5" si="2">C2/C4</f>
+        <v>0.31463414634146342</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3273542600896861</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32271831910702559</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32056804057722749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B3/B4</f>
+        <v>0.68243456322926521</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:E6" si="3">C3/C4</f>
+        <v>0.68536585365853664</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.67264573991031396</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.67728168089297436</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.67943195942277257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E42A388-5B2C-47EC-A623-06E5A99FE54B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1022</v>
+      </c>
+      <c r="E2" s="1">
+        <v>983</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(B2:B2)</f>
+        <v>1007</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(C2:C2)</f>
+        <v>1032</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(D2:D2)</f>
+        <v>1022</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM(E2:E2)</f>
+        <v>983</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)/4</f>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B2/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2/D3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA15CE-88C5-42D7-AC01-DBF3EE1BA5E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2164</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2248</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2063</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(B2:B2)</f>
+        <v>2164</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(C2:C2)</f>
+        <v>2248</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(D2:D2)</f>
+        <v>2100</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM(E2:E2)</f>
+        <v>2063</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)/4</f>
+        <v>2143.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B2/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2/D3</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tests/TI_Fonte.xlsx
+++ b/tests/TI_Fonte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDADE_STUFF\UNI\3a\1s\TI\TI_GROUP_WORK\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451009DD-B602-4273-B4E4-A132479EEF16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B36856-5800-4250-9ABE-6FD04F16D05B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
+    <workbookView xWindow="6120" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="11" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -477,15 +477,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45B7ECBC-F3BB-4FC2-8C87-2B486545B693}" name="Table2" displayName="Table2" ref="A1:F6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45B7ECBC-F3BB-4FC2-8C87-2B486545B693}" name="Table2" displayName="Table2" ref="A1:F6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F6" xr:uid="{5497B681-3AD8-44F9-8D9D-6D02DE7839E0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AF9129D3-2D60-47F8-B33D-0CD5D3446CB1}" name="Column1" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{90716298-F419-4D0B-9CF0-1B878C1656F8}" name="1" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{1FDB1C13-BECB-47AD-8F9C-8081E9D0A1CE}" name="2" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{ADC627C2-3263-4B57-A6CE-D82B94C826E3}" name="3" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{9F2C0C13-D64B-4FF2-8F48-62FFAECF1CA7}" name="4" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{5236973C-975C-46A4-AB14-5E815C2E5A96}" name="Total" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{AF9129D3-2D60-47F8-B33D-0CD5D3446CB1}" name="Column1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{90716298-F419-4D0B-9CF0-1B878C1656F8}" name="1" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{1FDB1C13-BECB-47AD-8F9C-8081E9D0A1CE}" name="2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{ADC627C2-3263-4B57-A6CE-D82B94C826E3}" name="3" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{9F2C0C13-D64B-4FF2-8F48-62FFAECF1CA7}" name="4" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{5236973C-975C-46A4-AB14-5E815C2E5A96}" name="Total" dataDxfId="40">
       <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -494,15 +494,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FCF6600-77A1-477C-9578-38E5455F0D9C}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FCF6600-77A1-477C-9578-38E5455F0D9C}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F4" xr:uid="{E09147CD-8B2D-4AD9-A5C8-68F0841B7A9B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B3E47F96-6B4F-4D9E-B833-645C8721F0CC}" name="Column1" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{A85180D1-72E5-4F0E-8B1A-963DB3EBFBC8}" name="1" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{02643A54-F158-4DE4-AD33-EA62B28D3836}" name="2" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{EF79131F-7236-476C-AB77-521818DA2D59}" name="3" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{5ACC58FA-39F5-4E4B-A356-A27439658C48}" name="4" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{B681919E-F5AE-47C6-ADD9-A141148FBC55}" name="Total" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{B3E47F96-6B4F-4D9E-B833-645C8721F0CC}" name="Column1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A85180D1-72E5-4F0E-8B1A-963DB3EBFBC8}" name="1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{02643A54-F158-4DE4-AD33-EA62B28D3836}" name="2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{EF79131F-7236-476C-AB77-521818DA2D59}" name="3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5ACC58FA-39F5-4E4B-A356-A27439658C48}" name="4" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{B681919E-F5AE-47C6-ADD9-A141148FBC55}" name="Total" dataDxfId="32">
       <calculatedColumnFormula>SUM(B2:E2)/4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C816F-CD6F-46D1-BDDC-D33DDCE112A3}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,11 +1642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3DFA79-9423-4F2E-9A23-DB8C6AA60AC6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1672,26 +1675,42 @@
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1">
+        <v>8993</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8968</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8978</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9017</v>
+      </c>
       <c r="F2" s="1">
         <f>SUM(B2:E2)/4</f>
-        <v>0</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>25936</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25455</v>
+      </c>
+      <c r="D3" s="1">
+        <v>26091</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26365</v>
+      </c>
       <c r="F3" s="1">
         <f>SUM(B3:E3)/4</f>
-        <v>0</v>
+        <v>25961.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,74 +1718,74 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <f>SUM(B3:B3)</f>
-        <v>0</v>
+        <f>SUM(B2:B3)</f>
+        <v>34929</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(C3:C3)</f>
-        <v>0</v>
+        <f t="shared" ref="C4:E4" si="0">SUM(C2:C3)</f>
+        <v>34423</v>
       </c>
       <c r="D4" s="1">
-        <f>SUM(D3:D3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35069</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM(E3:E3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35382</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F5" si="0">SUM(B4:E4)/4</f>
-        <v>0</v>
+        <f t="shared" ref="F4:F5" si="1">SUM(B4:E4)/4</f>
+        <v>34950.75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="e">
-        <f>B3/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f>C3/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="1" t="e">
-        <f>D3/D4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="1" t="e">
-        <f>E3/E4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="1">
+        <f>B2/B4</f>
+        <v>0.25746514357697042</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:E5" si="2">C2/C4</f>
+        <v>0.26052348720332336</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.256009581111523</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25484709739415523</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25721132732149299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1" t="e">
-        <f>B4/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="1" t="e">
-        <f>C4/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="1" t="e">
-        <f>D4/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="1" t="e">
-        <f>E4/E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="13" t="e">
-        <f t="shared" ref="F6" si="1">SUM(B6:E6)/4</f>
-        <v>#DIV/0!</v>
+      <c r="B6" s="1">
+        <f>B3/B4</f>
+        <v>0.74253485642302952</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:E6" si="3">C3/C4</f>
+        <v>0.73947651279667659</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74399041888847706</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74515290260584477</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" ref="F6" si="4">SUM(B6:E6)/4</f>
+        <v>0.74278867267850701</v>
       </c>
     </row>
   </sheetData>
@@ -2023,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA30243-74B1-46F8-AE5B-6E8588B163F2}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6F8EFB-283B-4BDF-BB77-AD38B2BA8333}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3530,7 @@
         <v>3171</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:F4" si="1">SUM(C2:C3)</f>
+        <f t="shared" ref="C4:E4" si="1">SUM(C2:C3)</f>
         <v>3280</v>
       </c>
       <c r="D4" s="1">
@@ -3681,7 +3700,7 @@
         <v>983</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="0">SUM(B3:E3)/4</f>
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)/4</f>
         <v>1011</v>
       </c>
     </row>

--- a/tests/TI_Fonte.xlsx
+++ b/tests/TI_Fonte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDADE_STUFF\UNI\3a\1s\TI\TI_GROUP_WORK\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B36856-5800-4250-9ABE-6FD04F16D05B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E8ECD-58A1-4F8E-B146-43451C9D37DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="11" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AACDE5C-D3A9-4C50-8E15-7E551BEA9752}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +296,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C816F-CD6F-46D1-BDDC-D33DDCE112A3}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,10 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="12">
+        <f>'-'!F5</f>
+        <v>0.25721132732149299</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1362,7 +1368,10 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="15">
+        <f>'-'!F6</f>
+        <v>0.74278867267850701</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1411,7 +1420,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1"/>
     </row>
@@ -1642,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3DFA79-9423-4F2E-9A23-DB8C6AA60AC6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
